--- a/problems/data/MT-KBH-004/XRD+synthsis_data_b6.xlsx
+++ b/problems/data/MT-KBH-004/XRD+synthsis_data_b6.xlsx
@@ -5783,7 +5783,9 @@
       <c r="B68" t="n">
         <v>22</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
       <c r="D68" t="n">
         <v>12.94</v>
       </c>
@@ -5860,7 +5862,9 @@
       <c r="B69" t="n">
         <v>22</v>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
       <c r="D69" t="n">
         <v>12.89</v>
       </c>
@@ -5937,7 +5941,9 @@
       <c r="B70" t="n">
         <v>22</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
       <c r="D70" t="n">
         <v>12.91</v>
       </c>
@@ -6014,7 +6020,9 @@
       <c r="B71" t="n">
         <v>23</v>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
       <c r="D71" t="n">
         <v>13.31</v>
       </c>
@@ -6091,7 +6099,9 @@
       <c r="B72" t="n">
         <v>23</v>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
       <c r="D72" t="n">
         <v>13.32</v>
       </c>
@@ -6168,7 +6178,9 @@
       <c r="B73" t="n">
         <v>23</v>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
       <c r="D73" t="n">
         <v>13.32</v>
       </c>
